--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\Desktop\Github\WEAPMODFLOW_LP_Calibration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0F01C-9906-44E6-ADC0-5A0A6C4BBDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970BD88C-0325-43B9-B7D0-E5692276C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -230,13 +230,7 @@
     <t>\Precipitation_SC_AGR</t>
   </si>
   <si>
-    <t>\Pozos - Observados</t>
-  </si>
-  <si>
     <t>Simulated_wells</t>
-  </si>
-  <si>
-    <t>Observated_wells</t>
   </si>
 </sst>
 </file>
@@ -647,16 +641,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
@@ -946,29 +940,29 @@
         <v>35</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" ref="D16:D31" si="1">CONCATENATE(B16,C16)</f>
+        <f t="shared" ref="D16:D30" si="1">CONCATENATE(B16,C16)</f>
         <v>MODFLOW y Acuiferos\Pozos - Simulados</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\Pozos - Observados</v>
+        <v>MODFLOW y Acuiferos\SHAC - L01</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -979,14 +973,14 @@
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L01</v>
+        <v>MODFLOW y Acuiferos\SHAC - L02</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -997,14 +991,14 @@
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L02</v>
+        <v>MODFLOW y Acuiferos\SHAC - L05</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1015,14 +1009,14 @@
         <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L05</v>
+        <v>MODFLOW y Acuiferos\SHAC - L06</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1033,14 +1027,14 @@
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L06</v>
+        <v>MODFLOW y Acuiferos\SHAC - L09</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -1051,14 +1045,14 @@
         <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L09</v>
+        <v>MODFLOW y Acuiferos\SHAC - L10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1069,14 +1063,14 @@
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L10</v>
+        <v>MODFLOW y Acuiferos\SHAC - L12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1087,17 +1081,17 @@
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L12</v>
+        <v>MODFLOW y Acuiferos\SHAC - P01</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -1105,15 +1099,18 @@
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P01</v>
+        <v>MODFLOW y Acuiferos\SHAC - P02</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="J25"/>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
@@ -1123,14 +1120,14 @@
         <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P02</v>
+        <v>MODFLOW y Acuiferos\SHAC - P03</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1144,14 +1141,14 @@
         <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P03</v>
+        <v>MODFLOW y Acuiferos\SHAC - P07</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1165,14 +1162,14 @@
         <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P07</v>
+        <v>MODFLOW y Acuiferos\SHAC - P08-v1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1186,14 +1183,14 @@
         <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P08-v1</v>
+        <v>MODFLOW y Acuiferos\SHAC - P08-v2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1201,42 +1198,31 @@
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P08-v2</v>
+        <v>Precipitation\Precipitation_SC_AGR</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Precipitation\Precipitation_SC_AGR</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="J31"/>
@@ -1917,7 +1903,6 @@
       <c r="C99" s="5"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
     </row>
@@ -1981,7 +1966,6 @@
       <c r="C106" s="5"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="H106"/>
       <c r="J106"/>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -1990,6 +1974,8 @@
       <c r="C107" s="5"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
+      <c r="G107"/>
+      <c r="H107"/>
       <c r="J107"/>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -2242,16 +2228,6 @@
       <c r="H132"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="J133"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\Desktop\Github\WEAPMODFLOW_LP_Calibration\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAPMODFLOW_LP_Calibration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970BD88C-0325-43B9-B7D0-E5692276C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30FFA4-C153-4957-8234-A445E4202754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -144,84 +144,6 @@
   </si>
   <si>
     <t>\Pozos - Simulados</t>
-  </si>
-  <si>
-    <t>\SHAC - L01</t>
-  </si>
-  <si>
-    <t>\SHAC - L02</t>
-  </si>
-  <si>
-    <t>\SHAC - L05</t>
-  </si>
-  <si>
-    <t>\SHAC - L06</t>
-  </si>
-  <si>
-    <t>\SHAC - L09</t>
-  </si>
-  <si>
-    <t>\SHAC - L10</t>
-  </si>
-  <si>
-    <t>\SHAC - L12</t>
-  </si>
-  <si>
-    <t>\SHAC - P01</t>
-  </si>
-  <si>
-    <t>\SHAC - P02</t>
-  </si>
-  <si>
-    <t>\SHAC - P03</t>
-  </si>
-  <si>
-    <t>\SHAC - P07</t>
-  </si>
-  <si>
-    <t>\SHAC - P08-v1</t>
-  </si>
-  <si>
-    <t>\SHAC - P08-v2</t>
-  </si>
-  <si>
-    <t>Cells_L01</t>
-  </si>
-  <si>
-    <t>Cells_L02</t>
-  </si>
-  <si>
-    <t>Cells_L05</t>
-  </si>
-  <si>
-    <t>Cells_L06</t>
-  </si>
-  <si>
-    <t>Cells_L09</t>
-  </si>
-  <si>
-    <t>Cells_L10</t>
-  </si>
-  <si>
-    <t>Cells_L12</t>
-  </si>
-  <si>
-    <t>Cells_P01</t>
-  </si>
-  <si>
-    <t>Cells_P02</t>
-  </si>
-  <si>
-    <t>Cells_P03</t>
-  </si>
-  <si>
-    <t>Cells_P07</t>
-  </si>
-  <si>
-    <t>Cells_P08_v1</t>
-  </si>
-  <si>
-    <t>Cells_P08_v2</t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -641,26 +563,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A17" sqref="A17:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" customWidth="1"/>
-    <col min="9" max="9" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -695,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -713,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -731,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -749,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -767,7 +689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -785,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -803,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -821,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -839,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -857,7 +779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -875,7 +797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -893,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -911,7 +833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -929,7 +851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -940,284 +862,165 @@
         <v>35</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" ref="D16:D30" si="1">CONCATENATE(B16,C16)</f>
+        <f t="shared" ref="D16:D17" si="1">CONCATENATE(B16,C16)</f>
         <v>MODFLOW y Acuiferos\Pozos - Simulados</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L01</v>
+        <v>Precipitation\Precipitation_SC_AGR</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L02</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L05</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L06</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L09</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - L12</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P01</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P02</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P03</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>58</v>
-      </c>
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P07</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>59</v>
-      </c>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P08-v1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>60</v>
-      </c>
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MODFLOW y Acuiferos\SHAC - P08-v2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>61</v>
-      </c>
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Precipitation\Precipitation_SC_AGR</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>62</v>
-      </c>
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1227,7 +1030,7 @@
       <c r="H31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1237,7 +1040,7 @@
       <c r="H32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1247,7 +1050,7 @@
       <c r="H33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1257,7 +1060,7 @@
       <c r="H34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1267,7 +1070,7 @@
       <c r="H35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1277,7 +1080,7 @@
       <c r="H36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1287,7 +1090,7 @@
       <c r="H37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1297,7 +1100,7 @@
       <c r="H38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1307,7 +1110,7 @@
       <c r="H39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1317,7 +1120,7 @@
       <c r="H40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1327,7 +1130,7 @@
       <c r="H41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -1337,7 +1140,7 @@
       <c r="H42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1347,7 +1150,7 @@
       <c r="H43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -1357,7 +1160,7 @@
       <c r="H44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1367,7 +1170,7 @@
       <c r="H45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1377,7 +1180,7 @@
       <c r="H46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1387,7 +1190,7 @@
       <c r="H47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1397,7 +1200,7 @@
       <c r="H48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1407,7 +1210,7 @@
       <c r="H49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1417,7 +1220,7 @@
       <c r="H50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1427,7 +1230,7 @@
       <c r="H51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1437,7 +1240,7 @@
       <c r="H52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1447,7 +1250,7 @@
       <c r="H53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -1457,7 +1260,7 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -1467,7 +1270,7 @@
       <c r="H55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -1477,7 +1280,7 @@
       <c r="H56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -1487,7 +1290,7 @@
       <c r="H57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -1497,7 +1300,7 @@
       <c r="H58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -1507,7 +1310,7 @@
       <c r="H59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -1517,7 +1320,7 @@
       <c r="H60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -1527,7 +1330,7 @@
       <c r="H61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -1537,7 +1340,7 @@
       <c r="H62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -1547,7 +1350,7 @@
       <c r="H63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -1557,7 +1360,7 @@
       <c r="H64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -1567,7 +1370,7 @@
       <c r="H65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -1577,7 +1380,7 @@
       <c r="H66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -1587,7 +1390,7 @@
       <c r="H67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -1597,7 +1400,7 @@
       <c r="H68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -1607,7 +1410,7 @@
       <c r="H69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -1617,7 +1420,7 @@
       <c r="H70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -1627,7 +1430,7 @@
       <c r="H71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -1637,7 +1440,7 @@
       <c r="H72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -1647,7 +1450,7 @@
       <c r="H73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -1657,7 +1460,7 @@
       <c r="H74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -1667,7 +1470,7 @@
       <c r="H75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -1677,7 +1480,7 @@
       <c r="H76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -1687,7 +1490,7 @@
       <c r="H77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -1697,7 +1500,7 @@
       <c r="H78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -1707,7 +1510,7 @@
       <c r="H79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -1717,7 +1520,7 @@
       <c r="H80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -1727,7 +1530,7 @@
       <c r="H81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -1737,7 +1540,7 @@
       <c r="H82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -1747,7 +1550,7 @@
       <c r="H83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -1757,7 +1560,7 @@
       <c r="H84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -1767,87 +1570,78 @@
       <c r="H85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="G86"/>
       <c r="H86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="G87"/>
       <c r="H87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="G88"/>
       <c r="H88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="G89"/>
       <c r="H89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="G90"/>
       <c r="H90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="G91"/>
       <c r="H91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="G92"/>
       <c r="H92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="G93"/>
-      <c r="H93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -1857,7 +1651,7 @@
       <c r="H94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -1867,7 +1661,7 @@
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -1877,7 +1671,7 @@
       <c r="H96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -1887,7 +1681,7 @@
       <c r="H97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -1897,78 +1691,87 @@
       <c r="H98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
+      <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
+      <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
+      <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
+      <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
+      <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
+      <c r="G104"/>
       <c r="H104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
+      <c r="G105"/>
       <c r="H105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
+      <c r="G106"/>
+      <c r="H106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -1978,7 +1781,7 @@
       <c r="H107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -1988,7 +1791,7 @@
       <c r="H108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -1998,7 +1801,7 @@
       <c r="H109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -2008,7 +1811,7 @@
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -2018,7 +1821,7 @@
       <c r="H111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -2028,7 +1831,7 @@
       <c r="H112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -2038,7 +1841,7 @@
       <c r="H113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -2048,7 +1851,7 @@
       <c r="H114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -2058,7 +1861,7 @@
       <c r="H115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -2068,7 +1871,7 @@
       <c r="H116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -2078,7 +1881,7 @@
       <c r="H117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -2088,7 +1891,7 @@
       <c r="H118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -2098,136 +1901,6 @@
       <c r="H119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="J125"/>
-    </row>
-    <row r="126" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="J126"/>
-    </row>
-    <row r="127" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="J127"/>
-    </row>
-    <row r="128" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="J128"/>
-    </row>
-    <row r="129" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="J132"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAPMODFLOW_LP_Calibration\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\Desktop\Github\WEAPMODFLOW_LP_Calibration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30FFA4-C153-4957-8234-A445E4202754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2296BF6D-114A-4C75-8142-78FB4C48CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -74,33 +74,9 @@
     <t>\SGC - EF_L09_Confluencia</t>
   </si>
   <si>
-    <t>\SGC - EF_P02_Confluencia</t>
-  </si>
-  <si>
-    <t>\SGC - EF_P07_Confluencia</t>
-  </si>
-  <si>
-    <t>\SGC - EF_P07_Embalse</t>
-  </si>
-  <si>
-    <t>\SGC - EF_P08_Ossandon</t>
-  </si>
-  <si>
     <t>\SGC - LiguaEnQuinquimo</t>
   </si>
   <si>
-    <t>\SGC - PedernalenTejada</t>
-  </si>
-  <si>
-    <t>\SGC - PetorcaEnLongotoma</t>
-  </si>
-  <si>
-    <t>\SGC - PetorcaEnPenon</t>
-  </si>
-  <si>
-    <t>\SGC - SobranteEnPinadero</t>
-  </si>
-  <si>
     <t>Q_EF_L02_Embalse</t>
   </si>
   <si>
@@ -113,31 +89,7 @@
     <t>Q_EF_L09_Confluencia</t>
   </si>
   <si>
-    <t>Q_EF_P02_Confluencia</t>
-  </si>
-  <si>
-    <t>Q_EF_P07_Confluencia</t>
-  </si>
-  <si>
-    <t>Q_EF_P07_Embalse</t>
-  </si>
-  <si>
-    <t>Q_EF_P08_Ossandon</t>
-  </si>
-  <si>
     <t>Q_LiguaEnQuinquimo</t>
-  </si>
-  <si>
-    <t>Q_PedernalenTejada</t>
-  </si>
-  <si>
-    <t>Q_PetorcaEnLongotoma</t>
-  </si>
-  <si>
-    <t>Q_PetorcaEnPenon</t>
-  </si>
-  <si>
-    <t>Q_SobranteEnPinadero</t>
   </si>
   <si>
     <t>MODFLOW y Acuiferos</t>
@@ -267,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,26 +515,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.53125" customWidth="1"/>
+    <col min="9" max="9" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -617,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -628,14 +580,14 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D15" si="0">CONCATENATE(B3,C3)</f>
+        <f t="shared" ref="D3:D7" si="0">CONCATENATE(B3,C3)</f>
         <v>Caudales\SGC - EF_L02_Embalse</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -650,10 +602,10 @@
         <v>Caudales\SGC - EF_L07_Confluencia</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -668,10 +620,10 @@
         <v>Caudales\SGC - EF_L07_Embalse</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -686,10 +638,10 @@
         <v>Caudales\SGC - EF_L09_Confluencia</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -701,196 +653,132 @@
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Caudales\SGC - EF_P02_Confluencia</v>
+        <v>Caudales\SGC - LiguaEnQuinquimo</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - EF_P07_Confluencia</v>
+        <f t="shared" ref="D8:D9" si="1">CONCATENATE(B8,C8)</f>
+        <v>MODFLOW y Acuiferos\Pozos - Simulados</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - EF_P07_Embalse</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - EF_P08_Ossandon</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - LiguaEnQuinquimo</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - PedernalenTejada</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - PetorcaEnLongotoma</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - PetorcaEnPenon</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Caudales\SGC - SobranteEnPinadero</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" ref="D16:D17" si="1">CONCATENATE(B16,C16)</f>
-        <v>MODFLOW y Acuiferos\Pozos - Simulados</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Precipitation\Precipitation_SC_AGR</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -900,7 +788,7 @@
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -910,7 +798,7 @@
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -920,7 +808,7 @@
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -930,7 +818,7 @@
       <c r="H21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -940,7 +828,7 @@
       <c r="H22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -950,7 +838,7 @@
       <c r="H23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -960,7 +848,7 @@
       <c r="H24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -970,7 +858,7 @@
       <c r="H25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -980,7 +868,7 @@
       <c r="H26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -990,7 +878,7 @@
       <c r="H27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1000,7 +888,7 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1010,7 +898,7 @@
       <c r="H29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1020,7 +908,7 @@
       <c r="H30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1030,7 +918,7 @@
       <c r="H31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1040,7 +928,7 @@
       <c r="H32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1050,7 +938,7 @@
       <c r="H33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1060,7 +948,7 @@
       <c r="H34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1070,7 +958,7 @@
       <c r="H35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1080,7 +968,7 @@
       <c r="H36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1090,7 +978,7 @@
       <c r="H37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1100,7 +988,7 @@
       <c r="H38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1110,7 +998,7 @@
       <c r="H39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1120,7 +1008,7 @@
       <c r="H40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1130,7 +1018,7 @@
       <c r="H41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -1140,7 +1028,7 @@
       <c r="H42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1150,7 +1038,7 @@
       <c r="H43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -1160,7 +1048,7 @@
       <c r="H44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1170,7 +1058,7 @@
       <c r="H45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1180,7 +1068,7 @@
       <c r="H46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1190,7 +1078,7 @@
       <c r="H47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1200,7 +1088,7 @@
       <c r="H48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1210,7 +1098,7 @@
       <c r="H49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1220,7 +1108,7 @@
       <c r="H50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1230,7 +1118,7 @@
       <c r="H51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1240,7 +1128,7 @@
       <c r="H52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1250,7 +1138,7 @@
       <c r="H53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -1260,7 +1148,7 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -1270,7 +1158,7 @@
       <c r="H55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -1280,7 +1168,7 @@
       <c r="H56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -1290,7 +1178,7 @@
       <c r="H57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -1300,7 +1188,7 @@
       <c r="H58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -1310,7 +1198,7 @@
       <c r="H59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -1320,7 +1208,7 @@
       <c r="H60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -1330,7 +1218,7 @@
       <c r="H61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -1340,7 +1228,7 @@
       <c r="H62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -1350,7 +1238,7 @@
       <c r="H63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -1360,7 +1248,7 @@
       <c r="H64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -1370,7 +1258,7 @@
       <c r="H65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -1380,7 +1268,7 @@
       <c r="H66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -1390,7 +1278,7 @@
       <c r="H67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -1400,7 +1288,7 @@
       <c r="H68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -1410,7 +1298,7 @@
       <c r="H69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -1420,7 +1308,7 @@
       <c r="H70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -1430,7 +1318,7 @@
       <c r="H71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -1440,7 +1328,7 @@
       <c r="H72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -1450,7 +1338,7 @@
       <c r="H73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -1460,7 +1348,7 @@
       <c r="H74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -1470,7 +1358,7 @@
       <c r="H75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -1480,7 +1368,7 @@
       <c r="H76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -1490,158 +1378,158 @@
       <c r="H77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="G79"/>
       <c r="H79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="G82"/>
       <c r="H82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="G83"/>
       <c r="H83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="G84"/>
       <c r="H84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="G85"/>
-      <c r="H85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
+      <c r="G86"/>
       <c r="H86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
+      <c r="G87"/>
       <c r="H87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
+      <c r="G88"/>
       <c r="H88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
+      <c r="G89"/>
       <c r="H89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
+      <c r="G90"/>
       <c r="H90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
+      <c r="G91"/>
       <c r="H91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
+      <c r="G92"/>
       <c r="H92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
+      <c r="G93"/>
+      <c r="H93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -1651,7 +1539,7 @@
       <c r="H94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -1661,7 +1549,7 @@
       <c r="H95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -1671,7 +1559,7 @@
       <c r="H96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -1681,7 +1569,7 @@
       <c r="H97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -1691,7 +1579,7 @@
       <c r="H98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -1701,7 +1589,7 @@
       <c r="H99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -1711,7 +1599,7 @@
       <c r="H100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -1721,7 +1609,7 @@
       <c r="H101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -1731,7 +1619,7 @@
       <c r="H102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -1741,7 +1629,7 @@
       <c r="H103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -1751,7 +1639,7 @@
       <c r="H104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -1761,7 +1649,7 @@
       <c r="H105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -1771,7 +1659,7 @@
       <c r="H106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -1781,7 +1669,7 @@
       <c r="H107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -1791,7 +1679,7 @@
       <c r="H108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -1801,7 +1689,7 @@
       <c r="H109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -1811,7 +1699,7 @@
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -1821,86 +1709,6 @@
       <c r="H111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="J119"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\Desktop\Github\WEAPMODFLOW_LP_Calibration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2296BF6D-114A-4C75-8142-78FB4C48CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFAB3A-E3DF-4D32-9B9B-3B76B207FB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -98,13 +98,28 @@
     <t>\Pozos - Simulados</t>
   </si>
   <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>\Precipitation_SC_AGR</t>
-  </si>
-  <si>
     <t>Simulated_wells</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>\Supply Delivered - Total Uses</t>
+  </si>
+  <si>
+    <t>\Unmet Demand - Total Uses</t>
+  </si>
+  <si>
+    <t>\Water Demand - Total Uses</t>
+  </si>
+  <si>
+    <t>Supply_delivered_TU</t>
+  </si>
+  <si>
+    <t>Unmet_demand_TU</t>
+  </si>
+  <si>
+    <t>Water_demand_TU</t>
   </si>
 </sst>
 </file>
@@ -219,9 +234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -670,11 +685,11 @@
         <v>19</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" ref="D8:D9" si="1">CONCATENATE(B8,C8)</f>
+        <f t="shared" ref="D8:D11" si="1">CONCATENATE(B8,C8)</f>
         <v>MODFLOW y Acuiferos\Pozos - Simulados</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -682,38 +697,60 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Precipitation\Precipitation_SC_AGR</v>
+        <v>Demand\Supply Delivered - Total Uses</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Demand\Unmet Demand - Total Uses</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Demand\Water Demand - Total Uses</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="J11"/>
@@ -1374,7 +1411,6 @@
       <c r="C77" s="5"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="G77"/>
       <c r="H77"/>
       <c r="J77"/>
     </row>
@@ -1438,7 +1474,6 @@
       <c r="C84" s="5"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="H84"/>
       <c r="J84"/>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -1447,6 +1482,8 @@
       <c r="C85" s="5"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
+      <c r="G85"/>
+      <c r="H85"/>
       <c r="J85"/>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -1699,16 +1736,6 @@
       <c r="H110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="J111"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\Desktop\Github\WEAPMODFLOW_LP_Calibration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFAB3A-E3DF-4D32-9B9B-3B76B207FB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC8B70-11EE-4224-9FCA-50504FADC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Water_demand_TU</t>
+  </si>
+  <si>
+    <t>\Transmission Link Flow - All Sources</t>
+  </si>
+  <si>
+    <t>SD_TransmissionLinks_All Sources</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -756,11 +762,22 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ref="D12" si="2">CONCATENATE(B12,C12)</f>
+        <v>Demand\Transmission Link Flow - All Sources</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="J12"/>
